--- a/Mini_assignment4/src/dataFiles/loginData.xlsx
+++ b/Mini_assignment4/src/dataFiles/loginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakbn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakbn\Desktop\git\hu_selenium\Mini_assignment4\src\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA686DE9-EDDD-46C9-B902-69662989EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690DC24F-1DA1-4C41-BFDE-147A2D94EE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8103AC64-A405-4B07-BB7C-13CFA634AD2F}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{8103AC64-A405-4B07-BB7C-13CFA634AD2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>usename</t>
   </si>
@@ -42,10 +42,25 @@
     <t>password</t>
   </si>
   <si>
+    <t>standard_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>Rakshan</t>
   </si>
   <si>
-    <t>Rakshan_bn@2001</t>
+    <t>B N</t>
   </si>
 </sst>
 </file>
@@ -408,36 +423,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96495E0A-6EBA-4DFB-B05D-C67E1F0B9D17}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>574229</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{9D5C82D1-6A6C-42EA-B8B4-0E036ECA98FB}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Rakshan_bn@2001" xr:uid="{9D5C82D1-6A6C-42EA-B8B4-0E036ECA98FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Mini_assignment4/src/dataFiles/loginData.xlsx
+++ b/Mini_assignment4/src/dataFiles/loginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakbn\Desktop\git\hu_selenium\Mini_assignment4\src\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690DC24F-1DA1-4C41-BFDE-147A2D94EE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2160719B-6D33-44EF-9446-886D043D880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{8103AC64-A405-4B07-BB7C-13CFA634AD2F}"/>
   </bookViews>
